--- a/Sep19/pos_gains_and_pos_prof/Tables/groups.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/groups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -437,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -465,68 +468,102 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>4.523294072329994</v>
@@ -576,10 +613,34 @@
       <c r="Q4">
         <v>0.2988257175711723</v>
       </c>
+      <c r="R4">
+        <v>64537961721</v>
+      </c>
+      <c r="S4">
+        <v>64711639466</v>
+      </c>
+      <c r="T4">
+        <v>62346466255</v>
+      </c>
+      <c r="U4">
+        <v>62520144000</v>
+      </c>
+      <c r="V4">
+        <v>70802529578</v>
+      </c>
+      <c r="W4">
+        <v>70802529578</v>
+      </c>
+      <c r="X4">
+        <v>70802529578</v>
+      </c>
+      <c r="Y4">
+        <v>70802529578</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>3.315361870740047</v>
@@ -629,10 +690,34 @@
       <c r="Q5">
         <v>0.2211841927373022</v>
       </c>
+      <c r="R5">
+        <v>976531986457</v>
+      </c>
+      <c r="S5">
+        <v>988562844368</v>
+      </c>
+      <c r="T5">
+        <v>976531986457</v>
+      </c>
+      <c r="U5">
+        <v>988562844368</v>
+      </c>
+      <c r="V5">
+        <v>1017055371530</v>
+      </c>
+      <c r="W5">
+        <v>1017055371530</v>
+      </c>
+      <c r="X5">
+        <v>1017055371530</v>
+      </c>
+      <c r="Y5">
+        <v>1017055371530</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1.006451695937695</v>
@@ -682,10 +767,34 @@
       <c r="Q6">
         <v>0.3711658062443811</v>
       </c>
+      <c r="R6">
+        <v>25762595315</v>
+      </c>
+      <c r="S6">
+        <v>37793453226</v>
+      </c>
+      <c r="T6">
+        <v>25762595315</v>
+      </c>
+      <c r="U6">
+        <v>37793453226</v>
+      </c>
+      <c r="V6">
+        <v>40333624448</v>
+      </c>
+      <c r="W6">
+        <v>40333624448</v>
+      </c>
+      <c r="X6">
+        <v>40333624448</v>
+      </c>
+      <c r="Y6">
+        <v>40333624448</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1.273864976313385</v>
@@ -735,10 +844,34 @@
       <c r="Q7">
         <v>0.439636374826367</v>
       </c>
+      <c r="R7">
+        <v>35956611724</v>
+      </c>
+      <c r="S7">
+        <v>49146191814</v>
+      </c>
+      <c r="T7">
+        <v>35956611724</v>
+      </c>
+      <c r="U7">
+        <v>49982592968</v>
+      </c>
+      <c r="V7">
+        <v>51692957042</v>
+      </c>
+      <c r="W7">
+        <v>51692957042</v>
+      </c>
+      <c r="X7">
+        <v>51692957042</v>
+      </c>
+      <c r="Y7">
+        <v>51692957042</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>5.571921165719384</v>
@@ -788,10 +921,34 @@
       <c r="Q8">
         <v>0.2096734066447806</v>
       </c>
+      <c r="R8">
+        <v>933471841988</v>
+      </c>
+      <c r="S8">
+        <v>933471841988</v>
+      </c>
+      <c r="T8">
+        <v>933471841988</v>
+      </c>
+      <c r="U8">
+        <v>933471841988</v>
+      </c>
+      <c r="V8">
+        <v>959424197928</v>
+      </c>
+      <c r="W8">
+        <v>959424197928</v>
+      </c>
+      <c r="X8">
+        <v>959424197928</v>
+      </c>
+      <c r="Y8">
+        <v>959424197928</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>3.904848695677025</v>
@@ -841,10 +998,34 @@
       <c r="Q9">
         <v>0.3932098658485418</v>
       </c>
+      <c r="R9">
+        <v>12457548014</v>
+      </c>
+      <c r="S9">
+        <v>30286449365</v>
+      </c>
+      <c r="T9">
+        <v>11068720584</v>
+      </c>
+      <c r="U9">
+        <v>31122850519</v>
+      </c>
+      <c r="V9">
+        <v>41023269259</v>
+      </c>
+      <c r="W9">
+        <v>41023269259</v>
+      </c>
+      <c r="X9">
+        <v>41023269259</v>
+      </c>
+      <c r="Y9">
+        <v>41023269259</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>5.401030386988848</v>
@@ -894,10 +1075,34 @@
       <c r="Q10">
         <v>0.2684919396530561</v>
       </c>
+      <c r="R10">
+        <v>65619795685</v>
+      </c>
+      <c r="S10">
+        <v>65619795685</v>
+      </c>
+      <c r="T10">
+        <v>65619795685</v>
+      </c>
+      <c r="U10">
+        <v>65619795685</v>
+      </c>
+      <c r="V10">
+        <v>91572151625</v>
+      </c>
+      <c r="W10">
+        <v>91572151625</v>
+      </c>
+      <c r="X10">
+        <v>91572151625</v>
+      </c>
+      <c r="Y10">
+        <v>91572151625</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>4.67041293109123</v>
@@ -947,10 +1152,34 @@
       <c r="Q11">
         <v>0.2189023975006622</v>
       </c>
+      <c r="R11">
+        <v>968765904574</v>
+      </c>
+      <c r="S11">
+        <v>968939582319</v>
+      </c>
+      <c r="T11">
+        <v>966574409108</v>
+      </c>
+      <c r="U11">
+        <v>966748086853</v>
+      </c>
+      <c r="V11">
+        <v>1007717406299</v>
+      </c>
+      <c r="W11">
+        <v>1007717406299</v>
+      </c>
+      <c r="X11">
+        <v>1007717406299</v>
+      </c>
+      <c r="Y11">
+        <v>1007717406299</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>4.04764256978859</v>
@@ -1000,10 +1229,34 @@
       <c r="Q12">
         <v>0.3146769211065464</v>
       </c>
+      <c r="R12">
+        <v>100913858271</v>
+      </c>
+      <c r="S12">
+        <v>101087536016</v>
+      </c>
+      <c r="T12">
+        <v>98722362805</v>
+      </c>
+      <c r="U12">
+        <v>98896040550</v>
+      </c>
+      <c r="V12">
+        <v>139865359996</v>
+      </c>
+      <c r="W12">
+        <v>139865359996</v>
+      </c>
+      <c r="X12">
+        <v>139865359996</v>
+      </c>
+      <c r="Y12">
+        <v>139865359996</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>5.713297586531789</v>
@@ -1053,11 +1306,36 @@
       <c r="Q13">
         <v>0.2034671187804626</v>
       </c>
+      <c r="R13">
+        <v>867852046303</v>
+      </c>
+      <c r="S13">
+        <v>867852046303</v>
+      </c>
+      <c r="T13">
+        <v>867852046303</v>
+      </c>
+      <c r="U13">
+        <v>867852046303</v>
+      </c>
+      <c r="V13">
+        <v>867852046303</v>
+      </c>
+      <c r="W13">
+        <v>867852046303</v>
+      </c>
+      <c r="X13">
+        <v>867852046303</v>
+      </c>
+      <c r="Y13">
+        <v>867852046303</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sep19/pos_gains_and_pos_prof/Tables/groups.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/groups.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -572,16 +572,16 @@
         <v>4.887193290853131</v>
       </c>
       <c r="D4">
+        <v>0.7733813234692754</v>
+      </c>
+      <c r="E4">
+        <v>0.8246446903403367</v>
+      </c>
+      <c r="F4">
         <v>3.866906617346374</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>4.123223451701683</v>
-      </c>
-      <c r="F4">
-        <v>0.4373203295420117</v>
-      </c>
-      <c r="G4">
-        <v>0.4576074739945433</v>
       </c>
       <c r="H4">
         <v>2.186601647710058</v>
@@ -602,10 +602,10 @@
         <v>0.2753197867554495</v>
       </c>
       <c r="N4">
-        <v>0.2988257175711723</v>
+        <v>0.275684440409188</v>
       </c>
       <c r="O4">
-        <v>0.2988257175711723</v>
+        <v>0.2753197867554495</v>
       </c>
       <c r="P4">
         <v>0.2988257175711723</v>
@@ -626,10 +626,10 @@
         <v>62520144000</v>
       </c>
       <c r="V4">
-        <v>70802529578</v>
+        <v>62346466255</v>
       </c>
       <c r="W4">
-        <v>70802529578</v>
+        <v>62520144000</v>
       </c>
       <c r="X4">
         <v>70802529578</v>
@@ -649,16 +649,16 @@
         <v>3.903749424778926</v>
       </c>
       <c r="D5">
+        <v>0.7383447073709195</v>
+      </c>
+      <c r="E5">
+        <v>0.8065494146227172</v>
+      </c>
+      <c r="F5">
         <v>3.691723536854596</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>4.032747073113593</v>
-      </c>
-      <c r="F5">
-        <v>1.273062709315375</v>
-      </c>
-      <c r="G5">
-        <v>1.301641115818705</v>
       </c>
       <c r="H5">
         <v>6.365313546576878</v>
@@ -679,10 +679,10 @@
         <v>0.2201697804353018</v>
       </c>
       <c r="N5">
-        <v>0.2211841927373022</v>
+        <v>0.2187022724763601</v>
       </c>
       <c r="O5">
-        <v>0.2211841927373022</v>
+        <v>0.2201697804353018</v>
       </c>
       <c r="P5">
         <v>0.2211841927373022</v>
@@ -703,10 +703,10 @@
         <v>988562844368</v>
       </c>
       <c r="V5">
-        <v>1017055371530</v>
+        <v>976531986457</v>
       </c>
       <c r="W5">
-        <v>1017055371530</v>
+        <v>988562844368</v>
       </c>
       <c r="X5">
         <v>1017055371530</v>
@@ -726,16 +726,16 @@
         <v>3.6797216981764</v>
       </c>
       <c r="D6">
+        <v>0.1800287566322612</v>
+      </c>
+      <c r="E6">
+        <v>0.5127070547825061</v>
+      </c>
+      <c r="F6">
         <v>0.9001437831613054</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>2.56353527391253</v>
-      </c>
-      <c r="F6">
-        <v>0.1206992337936032</v>
-      </c>
-      <c r="G6">
-        <v>0.2581366294316045</v>
       </c>
       <c r="H6">
         <v>0.6034961689680167</v>
@@ -756,10 +756,10 @@
         <v>0.3787799051437756</v>
       </c>
       <c r="N6">
-        <v>0.3711658062443811</v>
+        <v>0.3972232104675282</v>
       </c>
       <c r="O6">
-        <v>0.3711658062443811</v>
+        <v>0.3787799051437756</v>
       </c>
       <c r="P6">
         <v>0.3711658062443811</v>
@@ -780,10 +780,10 @@
         <v>37793453226</v>
       </c>
       <c r="V6">
-        <v>40333624448</v>
+        <v>25762595315</v>
       </c>
       <c r="W6">
-        <v>40333624448</v>
+        <v>37793453226</v>
       </c>
       <c r="X6">
         <v>40333624448</v>
@@ -803,16 +803,16 @@
         <v>4.987090472160043</v>
       </c>
       <c r="D7">
+        <v>0.2532044456230912</v>
+      </c>
+      <c r="E7">
+        <v>0.7184075403248512</v>
+      </c>
+      <c r="F7">
         <v>1.266022228115456</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>3.592037701624256</v>
-      </c>
-      <c r="F7">
-        <v>0.1648763736544095</v>
-      </c>
-      <c r="G7">
-        <v>0.3588030629902824</v>
       </c>
       <c r="H7">
         <v>0.8243818682720481</v>
@@ -833,10 +833,10 @@
         <v>0.4369507789038161</v>
       </c>
       <c r="N7">
-        <v>0.439636374826367</v>
+        <v>0.4812503551453929</v>
       </c>
       <c r="O7">
-        <v>0.439636374826367</v>
+        <v>0.4369507789038161</v>
       </c>
       <c r="P7">
         <v>0.439636374826367</v>
@@ -857,10 +857,10 @@
         <v>49982592968</v>
       </c>
       <c r="V7">
-        <v>51692957042</v>
+        <v>35956611724</v>
       </c>
       <c r="W7">
-        <v>51692957042</v>
+        <v>49982592968</v>
       </c>
       <c r="X7">
         <v>51692957042</v>
@@ -880,16 +880,16 @@
         <v>3.577088188744598</v>
       </c>
       <c r="D8">
+        <v>1.260193722463467</v>
+      </c>
+      <c r="E8">
+        <v>0.9921647696433968</v>
+      </c>
+      <c r="F8">
         <v>6.300968612317333</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>4.960823848216997</v>
-      </c>
-      <c r="F8">
-        <v>2.25656634707553</v>
-      </c>
-      <c r="G8">
-        <v>2.18277934621293</v>
       </c>
       <c r="H8">
         <v>11.28283173537765</v>
@@ -910,10 +910,10 @@
         <v>0.2083789632708606</v>
       </c>
       <c r="N8">
-        <v>0.2096734066447806</v>
+        <v>0.2083789632708606</v>
       </c>
       <c r="O8">
-        <v>0.2096734066447806</v>
+        <v>0.2083789632708606</v>
       </c>
       <c r="P8">
         <v>0.2096734066447806</v>
@@ -934,10 +934,10 @@
         <v>933471841988</v>
       </c>
       <c r="V8">
-        <v>959424197928</v>
+        <v>933471841988</v>
       </c>
       <c r="W8">
-        <v>959424197928</v>
+        <v>933471841988</v>
       </c>
       <c r="X8">
         <v>959424197928</v>
@@ -957,16 +957,16 @@
         <v>12.2845089286842</v>
       </c>
       <c r="D9">
+        <v>0.9736807634004252</v>
+      </c>
+      <c r="E9">
+        <v>1.808176613332981</v>
+      </c>
+      <c r="F9">
         <v>4.868403817002125</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>9.040883066664906</v>
-      </c>
-      <c r="F9">
-        <v>0.3041572890007191</v>
-      </c>
-      <c r="G9">
-        <v>0.698505150128228</v>
       </c>
       <c r="H9">
         <v>1.520786445003597</v>
@@ -987,10 +987,10 @@
         <v>0.4505402927164314</v>
       </c>
       <c r="N9">
-        <v>0.3932098658485418</v>
+        <v>0.7565071660679659</v>
       </c>
       <c r="O9">
-        <v>0.3932098658485418</v>
+        <v>0.4505402927164314</v>
       </c>
       <c r="P9">
         <v>0.3932098658485418</v>
@@ -1011,10 +1011,10 @@
         <v>31122850519</v>
       </c>
       <c r="V9">
-        <v>41023269259</v>
+        <v>11068720584</v>
       </c>
       <c r="W9">
-        <v>41023269259</v>
+        <v>31122850519</v>
       </c>
       <c r="X9">
         <v>41023269259</v>
@@ -1034,16 +1034,16 @@
         <v>6.047646282486956</v>
       </c>
       <c r="D10">
+        <v>0.9868244542315268</v>
+      </c>
+      <c r="E10">
+        <v>1.073704801281935</v>
+      </c>
+      <c r="F10">
         <v>4.934122271157631</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>5.368524006409673</v>
-      </c>
-      <c r="F10">
-        <v>0.3604700311485228</v>
-      </c>
-      <c r="G10">
-        <v>0.3754233160450117</v>
       </c>
       <c r="H10">
         <v>1.802350155742614</v>
@@ -1064,10 +1064,10 @@
         <v>0.2733403708402601</v>
       </c>
       <c r="N10">
-        <v>0.2684919396530561</v>
+        <v>0.2733403708402601</v>
       </c>
       <c r="O10">
-        <v>0.2684919396530561</v>
+        <v>0.2733403708402601</v>
       </c>
       <c r="P10">
         <v>0.2684919396530561</v>
@@ -1088,10 +1088,10 @@
         <v>65619795685</v>
       </c>
       <c r="V10">
-        <v>91572151625</v>
+        <v>65619795685</v>
       </c>
       <c r="W10">
-        <v>91572151625</v>
+        <v>65619795685</v>
       </c>
       <c r="X10">
         <v>91572151625</v>
@@ -1111,16 +1111,16 @@
         <v>3.958742725104202</v>
       </c>
       <c r="D11">
+        <v>1.056821244091495</v>
+      </c>
+      <c r="E11">
+        <v>0.9597021300649335</v>
+      </c>
+      <c r="F11">
         <v>5.284106220457476</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>4.798510650324678</v>
-      </c>
-      <c r="F11">
-        <v>1.719920272816035</v>
-      </c>
-      <c r="G11">
-        <v>1.694027698376301</v>
       </c>
       <c r="H11">
         <v>8.599601364080172</v>
@@ -1141,10 +1141,10 @@
         <v>0.2159690554647536</v>
       </c>
       <c r="N11">
-        <v>0.2189023975006622</v>
+        <v>0.2159819121733793</v>
       </c>
       <c r="O11">
-        <v>0.2189023975006622</v>
+        <v>0.2159690554647536</v>
       </c>
       <c r="P11">
         <v>0.2189023975006622</v>
@@ -1165,10 +1165,10 @@
         <v>966748086853</v>
       </c>
       <c r="V11">
-        <v>1007717406299</v>
+        <v>966574409108</v>
       </c>
       <c r="W11">
-        <v>1007717406299</v>
+        <v>966748086853</v>
       </c>
       <c r="X11">
         <v>1007717406299</v>
@@ -1188,16 +1188,16 @@
         <v>5.404740812061358</v>
       </c>
       <c r="D12">
+        <v>0.7943293633077065</v>
+      </c>
+      <c r="E12">
+        <v>0.9810512255814401</v>
+      </c>
+      <c r="F12">
         <v>3.971646816538531</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>4.905256127907198</v>
-      </c>
-      <c r="F12">
-        <v>0.3312620222576722</v>
-      </c>
-      <c r="G12">
-        <v>0.379970217698584</v>
       </c>
       <c r="H12">
         <v>1.656310111288361</v>
@@ -1218,10 +1218,10 @@
         <v>0.3256785167725302</v>
       </c>
       <c r="N12">
-        <v>0.3146769211065464</v>
+        <v>0.3259974015367673</v>
       </c>
       <c r="O12">
-        <v>0.3146769211065464</v>
+        <v>0.3256785167725302</v>
       </c>
       <c r="P12">
         <v>0.3146769211065464</v>
@@ -1242,10 +1242,10 @@
         <v>98896040550</v>
       </c>
       <c r="V12">
-        <v>139865359996</v>
+        <v>98722362805</v>
       </c>
       <c r="W12">
-        <v>139865359996</v>
+        <v>98896040550</v>
       </c>
       <c r="X12">
         <v>139865359996</v>
@@ -1265,16 +1265,16 @@
         <v>1.533217458579776</v>
       </c>
       <c r="D13">
+        <v>1.486349685879603</v>
+      </c>
+      <c r="E13">
+        <v>0.9247074269381814</v>
+      </c>
+      <c r="F13">
         <v>7.431748429398017</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>4.623537134690935</v>
-      </c>
-      <c r="F13">
-        <v>5.011663234882424</v>
-      </c>
-      <c r="G13">
-        <v>4.808933372275784</v>
       </c>
       <c r="H13">
         <v>25.05831617441214</v>

--- a/Sep19/pos_gains_and_pos_prof/Tables/groups.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/groups.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -572,22 +572,22 @@
         <v>4.887193290853131</v>
       </c>
       <c r="D4">
-        <v>0.7733813234692754</v>
+        <v>3.866906617346374</v>
       </c>
       <c r="E4">
-        <v>0.8246446903403367</v>
+        <v>4.123223451701683</v>
       </c>
       <c r="F4">
-        <v>3.866906617346374</v>
+        <v>0.6077570340462399</v>
       </c>
       <c r="G4">
-        <v>4.123223451701683</v>
+        <v>0.6566511157055041</v>
       </c>
       <c r="H4">
-        <v>2.186601647710058</v>
+        <v>3.038785170231203</v>
       </c>
       <c r="I4">
-        <v>2.288037369972717</v>
+        <v>3.283255578527521</v>
       </c>
       <c r="J4">
         <v>0.3075997206081643</v>
@@ -602,16 +602,16 @@
         <v>0.2753197867554495</v>
       </c>
       <c r="N4">
-        <v>0.275684440409188</v>
+        <v>0.3075997206081643</v>
       </c>
       <c r="O4">
-        <v>0.2753197867554495</v>
+        <v>0.3071617596312561</v>
       </c>
       <c r="P4">
-        <v>0.2988257175711723</v>
+        <v>0.3075997206081643</v>
       </c>
       <c r="Q4">
-        <v>0.2988257175711723</v>
+        <v>0.3071617596312561</v>
       </c>
       <c r="R4">
         <v>64537961721</v>
@@ -626,16 +626,16 @@
         <v>62520144000</v>
       </c>
       <c r="V4">
-        <v>62346466255</v>
+        <v>64537961721</v>
       </c>
       <c r="W4">
-        <v>62520144000</v>
+        <v>64711639466</v>
       </c>
       <c r="X4">
-        <v>70802529578</v>
+        <v>64537961721</v>
       </c>
       <c r="Y4">
-        <v>70802529578</v>
+        <v>64711639466</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -649,22 +649,22 @@
         <v>3.903749424778926</v>
       </c>
       <c r="D5">
-        <v>0.7383447073709195</v>
+        <v>3.691723536854596</v>
       </c>
       <c r="E5">
-        <v>0.8065494146227172</v>
+        <v>4.032747073113593</v>
       </c>
       <c r="F5">
-        <v>3.691723536854596</v>
+        <v>0.445457329355782</v>
       </c>
       <c r="G5">
-        <v>4.032747073113593</v>
+        <v>0.5245140232152166</v>
       </c>
       <c r="H5">
-        <v>6.365313546576878</v>
+        <v>2.227286646778918</v>
       </c>
       <c r="I5">
-        <v>6.508205579093518</v>
+        <v>2.62257011607609</v>
       </c>
       <c r="J5">
         <v>0.2187022724763601</v>
@@ -685,10 +685,10 @@
         <v>0.2201697804353018</v>
       </c>
       <c r="P5">
-        <v>0.2211841927373022</v>
+        <v>0.2187022724763601</v>
       </c>
       <c r="Q5">
-        <v>0.2211841927373022</v>
+        <v>0.2201697804353018</v>
       </c>
       <c r="R5">
         <v>976531986457</v>
@@ -709,10 +709,10 @@
         <v>988562844368</v>
       </c>
       <c r="X5">
-        <v>1017055371530</v>
+        <v>976531986457</v>
       </c>
       <c r="Y5">
-        <v>1017055371530</v>
+        <v>988562844368</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -726,22 +726,22 @@
         <v>3.6797216981764</v>
       </c>
       <c r="D6">
-        <v>0.1800287566322612</v>
+        <v>0.9001437831613054</v>
       </c>
       <c r="E6">
-        <v>0.5127070547825061</v>
+        <v>2.56353527391253</v>
       </c>
       <c r="F6">
-        <v>0.9001437831613054</v>
+        <v>0.1352284613498101</v>
       </c>
       <c r="G6">
-        <v>2.56353527391253</v>
+        <v>0.4944132991661326</v>
       </c>
       <c r="H6">
-        <v>0.6034961689680167</v>
+        <v>0.6761423067490511</v>
       </c>
       <c r="I6">
-        <v>1.290683147158022</v>
+        <v>2.472066495830664</v>
       </c>
       <c r="J6">
         <v>0.3972232104675282</v>
@@ -762,10 +762,10 @@
         <v>0.3787799051437756</v>
       </c>
       <c r="P6">
-        <v>0.3711658062443811</v>
+        <v>0.3972232104675282</v>
       </c>
       <c r="Q6">
-        <v>0.3711658062443811</v>
+        <v>0.3787799051437756</v>
       </c>
       <c r="R6">
         <v>25762595315</v>
@@ -786,10 +786,10 @@
         <v>37793453226</v>
       </c>
       <c r="X6">
-        <v>40333624448</v>
+        <v>25762595315</v>
       </c>
       <c r="Y6">
-        <v>40333624448</v>
+        <v>37793453226</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -803,22 +803,22 @@
         <v>4.987090472160043</v>
       </c>
       <c r="D7">
-        <v>0.2532044456230912</v>
+        <v>1.266022228115456</v>
       </c>
       <c r="E7">
-        <v>0.7184075403248512</v>
+        <v>3.592037701624256</v>
       </c>
       <c r="F7">
-        <v>1.266022228115456</v>
+        <v>0.1711585378707886</v>
       </c>
       <c r="G7">
-        <v>3.592037701624256</v>
+        <v>0.6700734609366188</v>
       </c>
       <c r="H7">
-        <v>0.8243818682720481</v>
+        <v>0.8557926893539434</v>
       </c>
       <c r="I7">
-        <v>1.794015314951412</v>
+        <v>3.350367304683096</v>
       </c>
       <c r="J7">
         <v>0.4812503551453929</v>
@@ -836,13 +836,13 @@
         <v>0.4812503551453929</v>
       </c>
       <c r="O7">
-        <v>0.4369507789038161</v>
+        <v>0.4141574112605363</v>
       </c>
       <c r="P7">
-        <v>0.439636374826367</v>
+        <v>0.4812503551453929</v>
       </c>
       <c r="Q7">
-        <v>0.439636374826367</v>
+        <v>0.4141574112605363</v>
       </c>
       <c r="R7">
         <v>35956611724</v>
@@ -860,13 +860,13 @@
         <v>35956611724</v>
       </c>
       <c r="W7">
-        <v>49982592968</v>
+        <v>49146191814</v>
       </c>
       <c r="X7">
-        <v>51692957042</v>
+        <v>35956611724</v>
       </c>
       <c r="Y7">
-        <v>51692957042</v>
+        <v>49146191814</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -880,22 +880,22 @@
         <v>3.577088188744598</v>
       </c>
       <c r="D8">
-        <v>1.260193722463467</v>
+        <v>6.300968612317333</v>
       </c>
       <c r="E8">
-        <v>0.9921647696433968</v>
+        <v>4.960823848216997</v>
       </c>
       <c r="F8">
-        <v>6.300968612317333</v>
+        <v>0.7486522493269407</v>
       </c>
       <c r="G8">
-        <v>4.960823848216997</v>
+        <v>0.4806232965068714</v>
       </c>
       <c r="H8">
-        <v>11.28283173537765</v>
+        <v>3.743261246634721</v>
       </c>
       <c r="I8">
-        <v>10.91389673106463</v>
+        <v>2.403116482534372</v>
       </c>
       <c r="J8">
         <v>0.2083789632708606</v>
@@ -916,10 +916,10 @@
         <v>0.2083789632708606</v>
       </c>
       <c r="P8">
-        <v>0.2096734066447806</v>
+        <v>0.2083789632708606</v>
       </c>
       <c r="Q8">
-        <v>0.2096734066447806</v>
+        <v>0.2083789632708606</v>
       </c>
       <c r="R8">
         <v>933471841988</v>
@@ -940,10 +940,10 @@
         <v>933471841988</v>
       </c>
       <c r="X8">
-        <v>959424197928</v>
+        <v>933471841988</v>
       </c>
       <c r="Y8">
-        <v>959424197928</v>
+        <v>933471841988</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -957,22 +957,22 @@
         <v>12.2845089286842</v>
       </c>
       <c r="D9">
-        <v>0.9736807634004252</v>
+        <v>4.868403817002125</v>
       </c>
       <c r="E9">
-        <v>1.808176613332981</v>
+        <v>9.040883066664906</v>
       </c>
       <c r="F9">
-        <v>4.868403817002125</v>
+        <v>0.5246617230131893</v>
       </c>
       <c r="G9">
-        <v>9.040883066664906</v>
+        <v>1.65056628904206</v>
       </c>
       <c r="H9">
-        <v>1.520786445003597</v>
+        <v>2.623308615065947</v>
       </c>
       <c r="I9">
-        <v>3.492525750641139</v>
+        <v>8.252831445210305</v>
       </c>
       <c r="J9">
         <v>0.691404836113843</v>
@@ -987,16 +987,16 @@
         <v>0.4505402927164314</v>
       </c>
       <c r="N9">
-        <v>0.7565071660679659</v>
+        <v>0.691404836113843</v>
       </c>
       <c r="O9">
-        <v>0.4505402927164314</v>
+        <v>0.4139285090145792</v>
       </c>
       <c r="P9">
-        <v>0.3932098658485418</v>
+        <v>0.691404836113843</v>
       </c>
       <c r="Q9">
-        <v>0.3932098658485418</v>
+        <v>0.4139285090145792</v>
       </c>
       <c r="R9">
         <v>12457548014</v>
@@ -1011,16 +1011,16 @@
         <v>31122850519</v>
       </c>
       <c r="V9">
-        <v>11068720584</v>
+        <v>12457548014</v>
       </c>
       <c r="W9">
-        <v>31122850519</v>
+        <v>30286449365</v>
       </c>
       <c r="X9">
-        <v>41023269259</v>
+        <v>12457548014</v>
       </c>
       <c r="Y9">
-        <v>41023269259</v>
+        <v>30286449365</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1034,22 +1034,22 @@
         <v>6.047646282486956</v>
       </c>
       <c r="D10">
-        <v>0.9868244542315268</v>
+        <v>4.934122271157631</v>
       </c>
       <c r="E10">
-        <v>1.073704801281935</v>
+        <v>5.368524006409673</v>
       </c>
       <c r="F10">
-        <v>4.934122271157631</v>
+        <v>0.7256910906743461</v>
       </c>
       <c r="G10">
-        <v>5.368524006409673</v>
+        <v>0.8125714377247552</v>
       </c>
       <c r="H10">
-        <v>1.802350155742614</v>
+        <v>3.628455453371734</v>
       </c>
       <c r="I10">
-        <v>1.877116580225058</v>
+        <v>4.062857188623775</v>
       </c>
       <c r="J10">
         <v>0.2733403708402601</v>
@@ -1070,10 +1070,10 @@
         <v>0.2733403708402601</v>
       </c>
       <c r="P10">
-        <v>0.2684919396530561</v>
+        <v>0.2733403708402601</v>
       </c>
       <c r="Q10">
-        <v>0.2684919396530561</v>
+        <v>0.2733403708402601</v>
       </c>
       <c r="R10">
         <v>65619795685</v>
@@ -1094,10 +1094,10 @@
         <v>65619795685</v>
       </c>
       <c r="X10">
-        <v>91572151625</v>
+        <v>65619795685</v>
       </c>
       <c r="Y10">
-        <v>91572151625</v>
+        <v>65619795685</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1111,22 +1111,22 @@
         <v>3.958742725104202</v>
       </c>
       <c r="D11">
-        <v>1.056821244091495</v>
+        <v>5.284106220457476</v>
       </c>
       <c r="E11">
-        <v>0.9597021300649335</v>
+        <v>4.798510650324678</v>
       </c>
       <c r="F11">
-        <v>5.284106220457476</v>
+        <v>0.6275241594692682</v>
       </c>
       <c r="G11">
-        <v>4.798510650324678</v>
+        <v>0.5319030110996331</v>
       </c>
       <c r="H11">
-        <v>8.599601364080172</v>
+        <v>3.137620797346352</v>
       </c>
       <c r="I11">
-        <v>8.470138491881499</v>
+        <v>2.659515055498176</v>
       </c>
       <c r="J11">
         <v>0.2182431240320865</v>
@@ -1141,16 +1141,16 @@
         <v>0.2159690554647536</v>
       </c>
       <c r="N11">
-        <v>0.2159819121733793</v>
+        <v>0.2182431240320865</v>
       </c>
       <c r="O11">
-        <v>0.2159690554647536</v>
+        <v>0.2182298910907581</v>
       </c>
       <c r="P11">
-        <v>0.2189023975006622</v>
+        <v>0.2182431240320865</v>
       </c>
       <c r="Q11">
-        <v>0.2189023975006622</v>
+        <v>0.2182298910907581</v>
       </c>
       <c r="R11">
         <v>968765904574</v>
@@ -1165,16 +1165,16 @@
         <v>966748086853</v>
       </c>
       <c r="V11">
-        <v>966574409108</v>
+        <v>968765904574</v>
       </c>
       <c r="W11">
-        <v>966748086853</v>
+        <v>968939582319</v>
       </c>
       <c r="X11">
-        <v>1007717406299</v>
+        <v>968765904574</v>
       </c>
       <c r="Y11">
-        <v>1007717406299</v>
+        <v>968939582319</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1188,22 +1188,22 @@
         <v>5.404740812061358</v>
       </c>
       <c r="D12">
-        <v>0.7943293633077065</v>
+        <v>3.971646816538531</v>
       </c>
       <c r="E12">
-        <v>0.9810512255814401</v>
+        <v>4.905256127907198</v>
       </c>
       <c r="F12">
-        <v>3.971646816538531</v>
+        <v>0.5438477365737253</v>
       </c>
       <c r="G12">
-        <v>4.905256127907198</v>
+        <v>0.7261896293280492</v>
       </c>
       <c r="H12">
-        <v>1.656310111288361</v>
+        <v>2.719238682868628</v>
       </c>
       <c r="I12">
-        <v>1.89985108849292</v>
+        <v>3.630948146640247</v>
       </c>
       <c r="J12">
         <v>0.3453157245005878</v>
@@ -1218,16 +1218,16 @@
         <v>0.3256785167725302</v>
       </c>
       <c r="N12">
-        <v>0.3259974015367673</v>
+        <v>0.3453157245005878</v>
       </c>
       <c r="O12">
-        <v>0.3256785167725302</v>
+        <v>0.3449705622311387</v>
       </c>
       <c r="P12">
-        <v>0.3146769211065464</v>
+        <v>0.3453157245005878</v>
       </c>
       <c r="Q12">
-        <v>0.3146769211065464</v>
+        <v>0.3449705622311387</v>
       </c>
       <c r="R12">
         <v>100913858271</v>
@@ -1242,16 +1242,16 @@
         <v>98896040550</v>
       </c>
       <c r="V12">
-        <v>98722362805</v>
+        <v>100913858271</v>
       </c>
       <c r="W12">
-        <v>98896040550</v>
+        <v>101087536016</v>
       </c>
       <c r="X12">
-        <v>139865359996</v>
+        <v>100913858271</v>
       </c>
       <c r="Y12">
-        <v>139865359996</v>
+        <v>101087536016</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1265,22 +1265,22 @@
         <v>1.533217458579776</v>
       </c>
       <c r="D13">
-        <v>1.486349685879603</v>
+        <v>7.431748429398017</v>
       </c>
       <c r="E13">
-        <v>0.9247074269381814</v>
+        <v>4.623537134690935</v>
       </c>
       <c r="F13">
-        <v>7.431748429398017</v>
+        <v>0.7676478115926395</v>
       </c>
       <c r="G13">
-        <v>4.623537134690935</v>
+        <v>0.2060055526512175</v>
       </c>
       <c r="H13">
-        <v>25.05831617441214</v>
+        <v>3.838239057963225</v>
       </c>
       <c r="I13">
-        <v>24.04466686137889</v>
+        <v>1.030027763256115</v>
       </c>
       <c r="J13">
         <v>0.2034671187804626</v>
